--- a/2° task/dati_filtrati/Rabbia_Cecchettin.xlsx
+++ b/2° task/dati_filtrati/Rabbia_Cecchettin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demai\OneDrive\Desktop\SENTIMENT ANALYSIS REDDIT\Sentiment_Analysis_Reddit\2° task\dati_filtrati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3841E2E-3099-4EB0-8491-0976B13FA331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF19390-291A-49E5-AEF9-874FB4F611BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2190" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="4905" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>FUORI</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>completo: lui si uccide a sua volta.</t>
-  </si>
-  <si>
-    <t>Black umor</t>
   </si>
   <si>
     <t xml:space="preserve">IN </t>
@@ -75,30 +72,18 @@
     <t>Beh ma li si passa alla psicopatia.  Son le eccezioni che servono per la regola.</t>
   </si>
   <si>
-    <t>Riferimento a Turetta</t>
-  </si>
-  <si>
     <t>ma vaffanculo.</t>
   </si>
   <si>
     <t>Ti faccio un esempio a me vicino. Tizio poco raccomandabile, due denunce da due ragazze per violenza, una delle due ha rischiato di essere sfigurata con l'acido ma lui l'ha mancata. Come dici te lo scopri dopo. Ok. La terza ha preferito lui, sapendo benissimo queste cose che ho scritto. Io posso avere tutti i difetti che vuoi, noioso, brutto, un mostro, ok, buttatemi nel canale e copritemi di terra, ma scegliere lui, sapendo cosa ha fatto, vuol dire andare a chiedere al mondo che le cose vadano male.E infatti...</t>
   </si>
   <si>
-    <t>Spiegazione di un accaduto completamente diverso da quello di Giulia Cecchettin</t>
-  </si>
-  <si>
     <t>Non lo metto in dubbio. Ma tra la morte e la noia cosa scegli ?</t>
   </si>
   <si>
     <t>Non voglio vincere nulla ma farti capire che un crimine è un crimine indipendentemente da chi lo compie. Bisogna fare attenzione alle singole persone senza guardare il loro sesso. Il discorso si chiude qui. Scrivi una sola sillaba e ti blocco.</t>
   </si>
   <si>
-    <t>Si parla del crimine</t>
-  </si>
-  <si>
-    <t>Risposta ad una discussione</t>
-  </si>
-  <si>
     <t>Vuoi che ti tiro fuori le donne sfregiate o date a fuoco? Non vinci questa discussione.</t>
   </si>
   <si>
@@ -124,12 +109,18 @@
   </si>
   <si>
     <t>La causa femminista è una pagliacciata da quando avete deciso che siete donne quando vi fa comodo e uomini sempre quando vi fa comodo. Mi sembra che potremmo essere di nuovo di fronte all'ennesimo (e spero vivamente di no) ODIO di una donna verso un uomo. Non credo tu ti debba preoccupare del contrario." ah no? Vivi sotto una roccia? Sei in contatto con la realtà ?</t>
+  </si>
+  <si>
+    <t>Non contestualizzato</t>
+  </si>
+  <si>
+    <t>Ironia contestualizzata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +509,7 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -535,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,23 +537,23 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -573,7 +564,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -584,18 +575,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -606,40 +597,40 @@
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -650,7 +641,7 @@
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -661,40 +652,40 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -705,7 +696,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -716,7 +707,7 @@
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
